--- a/CONTROL DE TAREAS.xlsx
+++ b/CONTROL DE TAREAS.xlsx
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ACTIVIDAD</t>
   </si>
   <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>PIE DE PÁGINA</t>
-  </si>
-  <si>
-    <t>REVISADA</t>
-  </si>
-  <si>
     <t>RECURSO 5: OBSERVACIÓN DE AULA</t>
   </si>
   <si>
@@ -64,13 +55,34 @@
   </si>
   <si>
     <t>RECURSO 9: TRABAJOS CON METALES</t>
+  </si>
+  <si>
+    <t>PIE DE PÁGINA en la vista</t>
+  </si>
+  <si>
+    <t>TÍTULOS en el formulario</t>
+  </si>
+  <si>
+    <t>PARRAFOS en el formulario</t>
+  </si>
+  <si>
+    <t>RECURSO en el formulario</t>
+  </si>
+  <si>
+    <t>SA en el formulario</t>
+  </si>
+  <si>
+    <t>TÍTULOS en la plantilla</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +90,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,13 +120,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,90 +435,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1"/>
+    <col min="5" max="6" width="14.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1">
+        <v>517</v>
+      </c>
+      <c r="F2" s="1">
+        <v>518</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1">
+        <v>519</v>
+      </c>
+      <c r="F3" s="1">
+        <v>520</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1">
+        <v>521</v>
+      </c>
+      <c r="F4" s="1">
+        <v>522</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C5" s="1"/>
+      <c r="E5" s="1">
+        <v>523</v>
+      </c>
+      <c r="F5" s="1">
+        <v>524</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C6" s="1"/>
+      <c r="E6" s="1">
+        <v>525</v>
+      </c>
+      <c r="F6" s="1">
+        <v>526</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C7" s="1"/>
+      <c r="E7" s="1">
+        <v>527</v>
+      </c>
+      <c r="F7" s="1">
+        <v>528</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" s="1">
+        <v>313</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>529</v>
+      </c>
+      <c r="F8" s="1">
+        <v>530</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C9" s="1">
+        <v>326</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>531</v>
+      </c>
+      <c r="F9" s="1">
+        <v>532</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>533</v>
+      </c>
+      <c r="F10" s="1">
+        <v>534</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" s="1">
+        <v>196</v>
+      </c>
+      <c r="E11" s="1">
+        <v>535</v>
+      </c>
+      <c r="F11" s="1">
+        <v>536</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C12" s="1">
+        <v>231</v>
+      </c>
+      <c r="E12" s="1">
+        <v>537</v>
+      </c>
+      <c r="F12" s="1">
+        <v>538</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
+      <c r="C13" s="1">
+        <v>545</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>541</v>
+      </c>
+      <c r="F13" s="1">
+        <v>542</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
